--- a/helping a friend/analysis/bargain-formatted.xlsx
+++ b/helping a friend/analysis/bargain-formatted.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="140" windowWidth="27580" windowHeight="17400" tabRatio="500"/>
+    <workbookView xWindow="120" yWindow="140" windowWidth="27580" windowHeight="17360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,16 +51,16 @@
     <t>-0.0147</t>
   </si>
   <si>
-    <t>-0.0159</t>
-  </si>
-  <si>
-    <t>-0.0182</t>
-  </si>
-  <si>
-    <t>-0.0283</t>
-  </si>
-  <si>
-    <t>-0.00876</t>
+    <t>-0.0179</t>
+  </si>
+  <si>
+    <t>-0.0204</t>
+  </si>
+  <si>
+    <t>-0.0289</t>
+  </si>
+  <si>
+    <t>-0.00953</t>
   </si>
   <si>
     <t>(0.0479)</t>
@@ -72,97 +72,100 @@
     <t>(0.0475)</t>
   </si>
   <si>
-    <t>(0.0460)</t>
-  </si>
-  <si>
-    <t>(0.0470)</t>
+    <t>(0.0476)</t>
+  </si>
+  <si>
+    <t>(0.0461)</t>
+  </si>
+  <si>
+    <t>(0.0472)</t>
   </si>
   <si>
     <t>0.125***</t>
   </si>
   <si>
-    <t>0.150***</t>
-  </si>
-  <si>
-    <t>0.136***</t>
-  </si>
-  <si>
-    <t>0.121**</t>
-  </si>
-  <si>
-    <t>0.0407</t>
+    <t>0.0390</t>
+  </si>
+  <si>
+    <t>0.0311</t>
+  </si>
+  <si>
+    <t>0.0256</t>
+  </si>
+  <si>
+    <t>-0.0346</t>
   </si>
   <si>
     <t>(0.0440)</t>
   </si>
   <si>
-    <t>(0.0474)</t>
-  </si>
-  <si>
-    <t>(0.0498)</t>
-  </si>
-  <si>
-    <t>(0.0530)</t>
-  </si>
-  <si>
-    <t>(0.0585)</t>
-  </si>
-  <si>
-    <t>0.0373</t>
-  </si>
-  <si>
-    <t>0.0303</t>
-  </si>
-  <si>
-    <t>0.0331</t>
-  </si>
-  <si>
-    <t>0.0413</t>
-  </si>
-  <si>
-    <t>(0.0482)</t>
-  </si>
-  <si>
-    <t>(0.0469)</t>
-  </si>
-  <si>
-    <t>(0.0449)</t>
-  </si>
-  <si>
-    <t>0.0650</t>
-  </si>
-  <si>
-    <t>0.0501</t>
-  </si>
-  <si>
-    <t>0.0502</t>
-  </si>
-  <si>
-    <t>(0.0568)</t>
-  </si>
-  <si>
-    <t>(0.0595)</t>
+    <t>(0.0709)</t>
+  </si>
+  <si>
+    <t>(0.0711)</t>
+  </si>
+  <si>
+    <t>(0.0692)</t>
+  </si>
+  <si>
+    <t>0.0702*</t>
+  </si>
+  <si>
+    <t>0.0686*</t>
+  </si>
+  <si>
+    <t>0.0610</t>
+  </si>
+  <si>
+    <t>0.0433</t>
+  </si>
+  <si>
+    <t>(0.0416)</t>
+  </si>
+  <si>
+    <t>(0.0410)</t>
+  </si>
+  <si>
+    <t>(0.0423)</t>
+  </si>
+  <si>
+    <t>(0.0434)</t>
+  </si>
+  <si>
+    <t>0.0658</t>
+  </si>
+  <si>
+    <t>0.0529</t>
+  </si>
+  <si>
+    <t>0.0533</t>
+  </si>
+  <si>
+    <t>(0.0565)</t>
   </si>
   <si>
     <t>(0.0591)</t>
   </si>
   <si>
-    <t>0.0218</t>
-  </si>
-  <si>
-    <t>0.0198</t>
-  </si>
-  <si>
-    <t>(0.0204)</t>
-  </si>
-  <si>
-    <t>(0.0201)</t>
-  </si>
-  <si>
-    <t>0.0317***</t>
-  </si>
-  <si>
-    <t>(0.0110)</t>
+    <t>(0.0589)</t>
+  </si>
+  <si>
+    <t>0.0191</t>
+  </si>
+  <si>
+    <t>0.0178</t>
+  </si>
+  <si>
+    <t>(0.0207)</t>
+  </si>
+  <si>
+    <t>(0.0205)</t>
+  </si>
+  <si>
+    <t>0.0301***</t>
+  </si>
+  <si>
+    <t>(0.0114)</t>
   </si>
   <si>
     <t>Constant</t>
@@ -174,16 +177,13 @@
     <t>0.779***</t>
   </si>
   <si>
-    <t>0.706***</t>
-  </si>
-  <si>
-    <t>0.679***</t>
-  </si>
-  <si>
-    <t>0.630***</t>
-  </si>
-  <si>
-    <t>0.531***</t>
+    <t>0.738***</t>
+  </si>
+  <si>
+    <t>0.699***</t>
+  </si>
+  <si>
+    <t>0.619***</t>
   </si>
   <si>
     <t>(0.0385)</t>
@@ -192,16 +192,16 @@
     <t>(0.0445)</t>
   </si>
   <si>
-    <t>(0.106)</t>
-  </si>
-  <si>
-    <t>(0.108)</t>
-  </si>
-  <si>
-    <t>(0.116)</t>
-  </si>
-  <si>
-    <t>(0.120)</t>
+    <t>(0.0444)</t>
+  </si>
+  <si>
+    <t>(0.0564)</t>
+  </si>
+  <si>
+    <t>(0.0730)</t>
+  </si>
+  <si>
+    <t>(0.0845)</t>
   </si>
   <si>
     <t>Observations</t>
@@ -219,13 +219,13 @@
     <t>0.027</t>
   </si>
   <si>
-    <t>0.028</t>
-  </si>
-  <si>
-    <t>0.034</t>
-  </si>
-  <si>
-    <t>0.038</t>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t>0.040</t>
   </si>
   <si>
     <t>0.056</t>
@@ -234,22 +234,22 @@
     <t>Gender</t>
   </si>
   <si>
+    <t>Marital status</t>
+  </si>
+  <si>
+    <t>Number of children</t>
+  </si>
+  <si>
     <t>Perception of being overcharged</t>
   </si>
   <si>
-    <t>Marital status</t>
-  </si>
-  <si>
-    <t>Number of children</t>
-  </si>
-  <si>
     <t>Bargaining frequency</t>
   </si>
   <si>
     <t>Monthly income level</t>
   </si>
   <si>
-    <t xml:space="preserve">Note: Robust standard errors in parentheses; *** p&lt;0.01, ** p&lt;0.05, * p&lt;0.1      </t>
+    <t>Note: Robust standard errors in parentheses; *** p&lt;0.01, ** p&lt;0.05, * p&lt;0.1</t>
   </si>
 </sst>
 </file>
@@ -326,26 +326,14 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,6 +341,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -686,502 +686,526 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25" style="1" customWidth="1"/>
-    <col min="2" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="23.5" style="7" customWidth="1"/>
+    <col min="2" max="7" width="9.6640625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="11"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5" t="s">
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="G11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="5" t="s">
+      <c r="G12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="G13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="5" t="s">
+      <c r="G14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5" t="s">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="5" t="s">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="7" t="s">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="9" t="s">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="9"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="13"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
